--- a/Template/Export/IndicDesemp_I1_17.xlsx
+++ b/Template/Export/IndicDesemp_I1_17.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="10320"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte" sheetId="1" r:id="rId1"/>
@@ -421,6 +416,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -440,12 +441,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -474,7 +469,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -634,7 +629,7 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -648,7 +643,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -797,7 +792,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -811,7 +806,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -960,7 +955,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -974,7 +969,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1123,7 +1118,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1137,7 +1132,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1286,7 +1281,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1300,7 +1295,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1452,7 +1447,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1466,7 +1461,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1631,7 +1626,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1645,7 +1640,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1810,7 +1805,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6495,7 +6490,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6530,7 +6525,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6707,7 +6702,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6720,7 +6715,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="34.5703125" customWidth="1"/>
@@ -6734,13 +6729,13 @@
   <sheetData>
     <row r="1" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -6771,103 +6766,103 @@
     </row>
     <row r="5" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="2:9" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="24"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="2:9" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="11"/>
       <c r="E13" s="15"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="2:9" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="24"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6883,7 +6878,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>

--- a/Template/Export/IndicDesemp_I1_17.xlsx
+++ b/Template/Export/IndicDesemp_I1_17.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="10320"/>
   </bookViews>
@@ -32,9 +37,6 @@
   </si>
   <si>
     <t>Percentage of patients with reported virologic outcome</t>
-  </si>
-  <si>
-    <t>Percentage of SARI closed cases measured by the patient's egress condition variable</t>
   </si>
   <si>
     <t>Median days between clinical sample collection (DOC) and receipt (DOR) in the laboratory</t>
@@ -69,11 +71,14 @@
   <si>
     <t>Results</t>
   </si>
+  <si>
+    <t>Percentage of SARI closed cases</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -416,12 +421,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -441,6 +440,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -467,9 +472,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-GT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -515,6 +520,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BE08-4C77-B5AE-3D4588D73BB7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -530,6 +540,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BE08-4C77-B5AE-3D4588D73BB7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -546,6 +561,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BE08-4C77-B5AE-3D4588D73BB7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -564,6 +584,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-BE08-4C77-B5AE-3D4588D73BB7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -577,6 +602,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-BE08-4C77-B5AE-3D4588D73BB7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -629,7 +659,7 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-GT"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -641,9 +671,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-GT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -689,6 +719,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4F75-4AC3-A170-2458D5879FDB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -704,6 +739,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4F75-4AC3-A170-2458D5879FDB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -720,6 +760,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4F75-4AC3-A170-2458D5879FDB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -738,6 +783,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-4F75-4AC3-A170-2458D5879FDB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -751,6 +801,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4F75-4AC3-A170-2458D5879FDB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -792,7 +847,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-GT"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -804,9 +859,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-GT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -852,6 +907,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A61D-41F8-A202-58B7DFC52F44}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -867,6 +927,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A61D-41F8-A202-58B7DFC52F44}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -883,6 +948,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A61D-41F8-A202-58B7DFC52F44}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -901,6 +971,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-A61D-41F8-A202-58B7DFC52F44}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -914,6 +989,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-A61D-41F8-A202-58B7DFC52F44}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -955,7 +1035,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-GT"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -967,9 +1047,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-GT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1015,6 +1095,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-24DB-49B6-9324-4F9D7B5F7947}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1030,6 +1115,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-24DB-49B6-9324-4F9D7B5F7947}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -1046,6 +1136,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-24DB-49B6-9324-4F9D7B5F7947}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1064,6 +1159,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-24DB-49B6-9324-4F9D7B5F7947}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -1077,6 +1177,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-24DB-49B6-9324-4F9D7B5F7947}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1118,7 +1223,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-GT"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1130,9 +1235,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-GT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1178,6 +1283,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2176-454A-9285-C5E8AEBABE30}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1193,6 +1303,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2176-454A-9285-C5E8AEBABE30}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -1209,6 +1324,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2176-454A-9285-C5E8AEBABE30}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1227,6 +1347,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-2176-454A-9285-C5E8AEBABE30}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -1240,6 +1365,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-2176-454A-9285-C5E8AEBABE30}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1281,7 +1411,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-GT"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1293,9 +1423,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-GT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1344,6 +1474,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7763-4D3C-9921-2CE9658E37B8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1359,6 +1494,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7763-4D3C-9921-2CE9658E37B8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -1375,6 +1515,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7763-4D3C-9921-2CE9658E37B8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1393,6 +1538,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-7763-4D3C-9921-2CE9658E37B8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -1406,6 +1556,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-7763-4D3C-9921-2CE9658E37B8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1447,7 +1602,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-GT"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1459,9 +1614,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-GT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1502,6 +1657,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6D2D-4D13-9DE1-B6247872B4F0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1517,6 +1677,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6D2D-4D13-9DE1-B6247872B4F0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -1533,6 +1698,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6D2D-4D13-9DE1-B6247872B4F0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1572,6 +1742,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-6D2D-4D13-9DE1-B6247872B4F0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -1585,6 +1760,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6D2D-4D13-9DE1-B6247872B4F0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1626,7 +1806,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-GT"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1638,9 +1818,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-GT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1681,6 +1861,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6332-4CD4-91EF-5E1F4755DA37}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1696,6 +1881,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6332-4CD4-91EF-5E1F4755DA37}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -1712,6 +1902,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6332-4CD4-91EF-5E1F4755DA37}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1751,6 +1946,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-6332-4CD4-91EF-5E1F4755DA37}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -1764,6 +1964,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6332-4CD4-91EF-5E1F4755DA37}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1805,7 +2010,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-GT"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6702,7 +6907,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6715,7 +6920,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="34.5703125" customWidth="1"/>
@@ -6729,20 +6934,20 @@
   <sheetData>
     <row r="1" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
-        <v>12</v>
+      <c r="B2" s="20" t="s">
+        <v>11</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -6754,7 +6959,7 @@
     </row>
     <row r="4" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -6766,103 +6971,103 @@
     </row>
     <row r="5" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
-        <v>4</v>
+      <c r="B9" s="16" t="s">
+        <v>15</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>5</v>
+      <c r="B10" s="16" t="s">
+        <v>4</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>6</v>
+      <c r="B11" s="16" t="s">
+        <v>5</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="2:9" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
-        <v>7</v>
+      <c r="B12" s="23" t="s">
+        <v>6</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="2:9" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="16" t="s">
-        <v>8</v>
+      <c r="B13" s="23" t="s">
+        <v>7</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="11"/>
       <c r="E13" s="15"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="2:9" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16" t="s">
-        <v>9</v>
+      <c r="B14" s="23" t="s">
+        <v>8</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6872,13 +7077,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
